--- a/personal/PyCharm.xlsx
+++ b/personal/PyCharm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\pythonrepository\xianxian-erfan\personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E6F039-505F-46A0-BA2D-91115ABB18C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10E83C1-98DC-4BB8-A908-CF36DFB6B5F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="1875" windowWidth="14520" windowHeight="8340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3015" yWindow="1875" windowWidth="14520" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="快捷键的使用" sheetId="1" r:id="rId1"/>
@@ -404,8 +404,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -486,7 +489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DE072D-74C8-4341-941B-EAA7EB559035}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
